--- a/dragon-shinwa/checklist.xlsx
+++ b/dragon-shinwa/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-shinwa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3201108F-8EA7-6748-8897-C04A8915962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55229C9-61CB-D24A-9CF4-95DA57ABDE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CAC5D36C-EC1C-7346-AD5D-DB2DCA975219}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dragon-shinwa/checklist.xlsx
+++ b/dragon-shinwa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-shinwa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55229C9-61CB-D24A-9CF4-95DA57ABDE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DFBD9E-763F-6040-A160-4C2225FF8D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CAC5D36C-EC1C-7346-AD5D-DB2DCA975219}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -119,19 +119,25 @@
     <t>Dragon Magazine Vol. 4</t>
   </si>
   <si>
-    <t>Fantasy Gamer Journal Vol. 4</t>
-  </si>
-  <si>
-    <t>Fantasy Gamer Journal Vol. 5</t>
-  </si>
-  <si>
-    <t>Fantasy Gamer Journal Vol. 6</t>
-  </si>
-  <si>
-    <t>Fantasy Gamer Journal Vol. 7</t>
-  </si>
-  <si>
-    <t>Fantasy Gamer Journal Vol. 3</t>
+    <t>Fantasy Gamers' Journal Vol. 4</t>
+  </si>
+  <si>
+    <t>Fantasy Gamers' Journal Vol. 5</t>
+  </si>
+  <si>
+    <t>Fantasy Gamers' Journal Vol. 6</t>
+  </si>
+  <si>
+    <t>Fantasy Gamers' Journal Vol. 7</t>
+  </si>
+  <si>
+    <t>Fantasy Gamers' Journal Vol. 3</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71A4AE6-6229-4744-B9DA-1ED6D5E05ACD}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +516,7 @@
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +532,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -543,8 +552,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -560,8 +572,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -577,8 +592,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1987</v>
       </c>
@@ -594,8 +612,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1987</v>
       </c>
@@ -611,8 +632,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1987</v>
       </c>
@@ -628,8 +652,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1987</v>
       </c>
@@ -645,8 +672,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -662,8 +692,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -678,6 +711,9 @@
       </c>
       <c r="E10" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
